--- a/Hardware Design/EVCU Rev B/EVCU Rev B BOM.xlsx
+++ b/Hardware Design/EVCU Rev B/EVCU Rev B BOM.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Engineering Homework\5th Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB522838-C0AC-4239-AC90-AD2987FC83B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E2C9F-E0D6-476B-BD49-186CD9E9B0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EVCU REVB PCB BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="EVCU Rev B Parts order" sheetId="4" r:id="rId2"/>
+    <sheet name="Total Budget" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="237">
   <si>
     <t>Value</t>
   </si>
@@ -672,6 +671,81 @@
   </si>
   <si>
     <t>R4, R11, R8</t>
+  </si>
+  <si>
+    <t>Supplier Link/ASIN</t>
+  </si>
+  <si>
+    <t>B07T2G5GZS</t>
+  </si>
+  <si>
+    <t>Micro USB Breakout Board</t>
+  </si>
+  <si>
+    <t>B01M5GZ3N0</t>
+  </si>
+  <si>
+    <t>Micro USB Male to Male</t>
+  </si>
+  <si>
+    <t>Single Component Cost</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>STM32L4R9 Evaluation Board</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>B0BFFBCPBK</t>
+  </si>
+  <si>
+    <t>B01ICN5LPK</t>
+  </si>
+  <si>
+    <t>CANBus MCU Accesory Board</t>
+  </si>
+  <si>
+    <t>MPU 6500 Accessory Board</t>
+  </si>
+  <si>
+    <t>EVCU PCB Order</t>
+  </si>
+  <si>
+    <t>AE11229-ND</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>QTY component cost</t>
+  </si>
+  <si>
+    <t>CBL USB2.0 A PLG-MCR B PLG 0.98'</t>
+  </si>
+  <si>
+    <t>AK67421-0.3-VM</t>
+  </si>
+  <si>
+    <t>USB 2.0A Connector</t>
+  </si>
+  <si>
+    <t>EVCU Parts Order</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Total Budget</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/STM32L4R9I-DISCO/7807686</t>
+  </si>
+  <si>
+    <t>Shipping Fees</t>
   </si>
 </sst>
 </file>
@@ -683,7 +757,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,8 +780,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,8 +810,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -810,6 +906,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -817,7 +982,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -837,6 +1002,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -844,7 +1034,202 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1040,19 +1425,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J38" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J38" totalsRowShown="0" headerRowDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A1:J38" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{248C3E0F-9C52-4B54-A33B-818856AAF02B}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{E9C5C07F-4A9B-457F-9C1B-E3E843BC7343}" name="PCB Annotation" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{15573915-3498-450E-AB83-228275C33AAA}" name="Value" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A7C9009E-7A0F-4FD9-BF5B-D917AFA5F1AC}" name="Manufacturer" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E9C5C07F-4A9B-457F-9C1B-E3E843BC7343}" name="PCB Annotation" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{15573915-3498-450E-AB83-228275C33AAA}" name="Value" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{A7C9009E-7A0F-4FD9-BF5B-D917AFA5F1AC}" name="Manufacturer" dataDxfId="16"/>
     <tableColumn id="5" xr3:uid="{88198F40-6BAA-40F5-AB39-74D4DCC88C15}" name="Mfr. P/N"/>
-    <tableColumn id="6" xr3:uid="{CC1F4E3D-BB49-4387-BF0A-79458263CB94}" name="Quantity" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{20ACDF5C-8707-4781-A0CB-DB1C25E79C1C}" name="Description" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{8C9A800C-EFB8-4995-A415-4AB482E94962}" name="Supplier" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{5F12F91F-9438-4932-882C-E46F49C81777}" name="Supplier Link" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{10D866B2-5307-4DBB-A183-62BC4CDB5538}" name="Component Cost" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{CC1F4E3D-BB49-4387-BF0A-79458263CB94}" name="Quantity" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{20ACDF5C-8707-4781-A0CB-DB1C25E79C1C}" name="Description" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{8C9A800C-EFB8-4995-A415-4AB482E94962}" name="Supplier" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{5F12F91F-9438-4932-882C-E46F49C81777}" name="Supplier Link" dataDxfId="12" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{10D866B2-5307-4DBB-A183-62BC4CDB5538}" name="Component Cost" dataDxfId="11" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B8FDA5BD-6AF3-A643-A460-F0CB2DBE8860}" name="Table14" displayName="Table14" ref="A1:K39" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:K39" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{BE813498-E52F-BD49-B236-30987608EE25}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{0B3819FA-2A84-674F-9C75-01F1C8669274}" name="PCB Annotation" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{168E5CC6-DC11-DE43-88BF-A0340890AF22}" name="Value" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{9FF17274-9751-274D-8F81-DDBE1FF40957}" name="Manufacturer" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{FE2A09B0-0E9E-EB4E-BBDA-6EC60CB8B082}" name="Mfr. P/N"/>
+    <tableColumn id="6" xr3:uid="{BF69E045-6E01-B043-BD7D-A1DBB7DD00FC}" name="Quantity" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{8835EA8C-85C3-9440-AB8B-50D6AF0D99E9}" name="Description" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{AED7C996-1A74-114C-BC4D-83111266F3D6}" name="Supplier" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{128AF7E9-C62D-BC45-8194-047E21F7EBFF}" name="Supplier Link" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{9A85A7D1-06E8-F048-B0BB-1E5D33382155}" name="Component" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="11" xr3:uid="{AA7A4F06-6872-CC48-94CE-F854BEA54BA8}" name="QTY component cost" dataDxfId="0">
+      <calculatedColumnFormula>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1323,27 +1730,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+    <sheetView zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.15234375" customWidth="1"/>
+    <col min="2" max="2" width="25.15234375" customWidth="1"/>
+    <col min="3" max="3" width="39.15234375" customWidth="1"/>
+    <col min="4" max="4" width="23.3046875" customWidth="1"/>
+    <col min="5" max="5" width="18.4609375" customWidth="1"/>
+    <col min="6" max="6" width="9.4609375" customWidth="1"/>
+    <col min="7" max="7" width="37.3046875" customWidth="1"/>
+    <col min="8" max="8" width="18.4609375" customWidth="1"/>
     <col min="9" max="9" width="58" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" customWidth="1"/>
+    <col min="11" max="11" width="15.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1786,7 @@
       </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1822,7 @@
         <v>118.61</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>172</v>
       </c>
@@ -1447,7 +1854,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
@@ -1479,7 +1886,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +1918,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1543,7 +1950,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
@@ -1575,7 +1982,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>203</v>
       </c>
@@ -1607,7 +2014,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1639,7 +2046,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1671,7 +2078,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1703,7 +2110,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>184</v>
       </c>
@@ -1735,7 +2142,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>162</v>
       </c>
@@ -1767,7 +2174,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>167</v>
       </c>
@@ -1799,7 +2206,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1831,7 +2238,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1864,7 +2271,7 @@
       </c>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -1896,7 +2303,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>157</v>
       </c>
@@ -1928,7 +2335,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>143</v>
       </c>
@@ -1960,7 +2367,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -1992,7 +2399,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>125</v>
       </c>
@@ -2024,7 +2431,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>120</v>
       </c>
@@ -2056,7 +2463,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>885012206014</v>
       </c>
@@ -2088,7 +2495,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>65</v>
       </c>
@@ -2120,7 +2527,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>133</v>
       </c>
@@ -2152,7 +2559,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>72</v>
       </c>
@@ -2184,7 +2591,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>138</v>
       </c>
@@ -2216,7 +2623,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -2248,7 +2655,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>82</v>
       </c>
@@ -2280,7 +2687,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>87</v>
       </c>
@@ -2312,7 +2719,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>207</v>
       </c>
@@ -2344,7 +2751,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>92</v>
       </c>
@@ -2376,7 +2783,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>178</v>
       </c>
@@ -2408,7 +2815,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="11">
         <v>1984659</v>
       </c>
@@ -2440,7 +2847,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="11">
         <v>61300211121</v>
       </c>
@@ -2472,7 +2879,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="11">
         <v>1984617</v>
       </c>
@@ -2504,7 +2911,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="10">
         <v>693072010801</v>
       </c>
@@ -2536,7 +2943,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>100</v>
       </c>
@@ -2568,7 +2975,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -2614,8 +3021,1716 @@
     <hyperlink ref="I8" r:id="rId37" xr:uid="{C1DB8B7C-7E12-488C-BDC9-7D2143C6704B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDE1249-3BC2-B240-8C11-EEFBC38FC5AD}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.15234375" customWidth="1"/>
+    <col min="2" max="2" width="25.15234375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="39.15234375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3046875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.4609375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4609375" customWidth="1"/>
+    <col min="7" max="7" width="17.23046875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.4609375" customWidth="1"/>
+    <col min="9" max="9" width="18.765625" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3046875" customWidth="1"/>
+    <col min="12" max="12" width="15.4609375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6">
+        <v>34.69</v>
+      </c>
+      <c r="K2" s="15">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>34.69</v>
+      </c>
+      <c r="L2" s="9">
+        <f>SUM(K:K)</f>
+        <v>207.15999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="K3" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="K5" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6">
+        <v>13.98</v>
+      </c>
+      <c r="K6" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>41.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4.79</v>
+      </c>
+      <c r="K7" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>14.370000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="K8" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="K9" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="K10" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="K11" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="K12" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="K13" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>2.3200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="K14" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="K15" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.1096</v>
+      </c>
+      <c r="K16" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>5.48</v>
+      </c>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="4">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K17" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="K18" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>2.6900000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="4">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="K19" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K20" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="K21" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.187</v>
+      </c>
+      <c r="K22" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="10">
+        <v>885012206014</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10">
+        <v>885012206014</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K23" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="K24" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K25" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="4">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="K26" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="4">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K27" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="4">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="K28" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="4">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.114</v>
+      </c>
+      <c r="K29" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>1.1400000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="4">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="K30" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="4">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K31" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>0.42999999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="4">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K32" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="K33" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="11">
+        <v>1984659</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1984659</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="K34" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="11">
+        <v>61300211121</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="11">
+        <v>61300211121</v>
+      </c>
+      <c r="F35" s="4">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K35" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>1.6300000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="11">
+        <v>1984617</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1984617</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="6">
+        <v>2.54</v>
+      </c>
+      <c r="K36" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="10">
+        <v>693072010801</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="10">
+        <v>693072010801</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="6">
+        <v>4.91</v>
+      </c>
+      <c r="K37" s="6">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K38" s="16">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="18">
+        <v>2</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="16">
+        <v>3.96</v>
+      </c>
+      <c r="K39" s="19">
+        <f>Table14[[#This Row],[Component]]*Table14[[#This Row],[Quantity]]</f>
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{DBD9DDE5-28D2-0347-ABC6-67764E310184}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{02C8ED1D-208A-1F4F-97A7-C3A153A9C8FF}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{D64B6A4C-8B04-B643-BB7A-7856F79D2B39}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{9C3CFD70-469D-1B4B-8227-1E638CA0B970}"/>
+    <hyperlink ref="I10" r:id="rId5" xr:uid="{77167BA1-4F41-904F-8B4C-251C54C817E9}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{F64499AC-6A67-6A44-97DC-CFF2045EA012}"/>
+    <hyperlink ref="I15" r:id="rId7" xr:uid="{2EF08577-CE2F-874F-B210-6347FC7FE128}"/>
+    <hyperlink ref="I16" r:id="rId8" xr:uid="{8E949A08-7EE8-E948-9174-5F3E127F88CA}"/>
+    <hyperlink ref="I17" r:id="rId9" xr:uid="{0ECF5FCD-DB17-214A-8F8A-3FED6F66FD80}"/>
+    <hyperlink ref="I20" r:id="rId10" xr:uid="{4C2770F6-4581-3148-9F5E-0204E1BA68C7}"/>
+    <hyperlink ref="I23" r:id="rId11" xr:uid="{1DF1BFBC-53B8-6942-8081-68471C8FC38B}"/>
+    <hyperlink ref="I26" r:id="rId12" xr:uid="{BF168FB3-B9CA-8D42-AD87-B8FAB54941A1}"/>
+    <hyperlink ref="I28" r:id="rId13" xr:uid="{9B2FD4C6-7FB8-6443-9364-B4FA6FB3F28A}"/>
+    <hyperlink ref="I29" r:id="rId14" xr:uid="{867296E6-3721-D345-936C-5B0C781EB4BC}"/>
+    <hyperlink ref="I30" r:id="rId15" xr:uid="{B99066B3-3461-054B-8A36-DA79F95A0A3B}"/>
+    <hyperlink ref="I32" r:id="rId16" xr:uid="{7AF58F6E-20BE-DD4C-9BD4-C5CC48A82FBE}"/>
+    <hyperlink ref="I36" r:id="rId17" xr:uid="{C79ADCEB-C090-8247-A257-FFA99BF62B7B}"/>
+    <hyperlink ref="I38" r:id="rId18" xr:uid="{4CA3B404-EF61-724D-A556-7C1EA6C358CC}"/>
+    <hyperlink ref="I37" r:id="rId19" xr:uid="{7D9BD1B0-B160-6A4A-A1BC-EC94EE46A52C}"/>
+    <hyperlink ref="I4" r:id="rId20" xr:uid="{9B43C6B8-537B-6E41-B5E3-1F3CD2411324}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{3219C2A9-A2DD-6848-9EA7-7BDD3241EFDA}"/>
+    <hyperlink ref="I21" r:id="rId22" xr:uid="{313B109E-C641-644F-8D2C-B7674F746BD5}"/>
+    <hyperlink ref="I25" r:id="rId23" xr:uid="{47489BC5-8257-6C48-AA85-3F52E79DE7DD}"/>
+    <hyperlink ref="I27" r:id="rId24" xr:uid="{79B99DC3-FA8F-144D-B8DF-7A59908E47CE}"/>
+    <hyperlink ref="I24" r:id="rId25" xr:uid="{188C7F4A-B7FC-394F-9F90-A3A58D8C0BB5}"/>
+    <hyperlink ref="I18" r:id="rId26" xr:uid="{2DFCF44B-475E-1A44-BD92-F5BC41C70B95}"/>
+    <hyperlink ref="I13" r:id="rId27" xr:uid="{DBA90956-A0BB-844A-ABF0-C50ABF015E59}"/>
+    <hyperlink ref="I14" r:id="rId28" xr:uid="{76EEF990-EC52-344A-BBE2-F1930BEB9CE3}"/>
+    <hyperlink ref="I3" r:id="rId29" xr:uid="{FE44FF8F-AA73-8246-8727-56144E573ED0}"/>
+    <hyperlink ref="I12" r:id="rId30" xr:uid="{84E25C26-22CF-B84B-9EA0-C776846F1EDA}"/>
+    <hyperlink ref="I7" r:id="rId31" xr:uid="{03A1371C-9E9B-2241-9148-0D634A66FAF9}"/>
+    <hyperlink ref="I19" r:id="rId32" xr:uid="{EA39F737-A6DF-4943-9D02-8A475AC8EF86}"/>
+    <hyperlink ref="I33" r:id="rId33" xr:uid="{D17D8AE8-E0CD-FD46-8276-D69E1270B912}"/>
+    <hyperlink ref="I34" r:id="rId34" xr:uid="{74CBBB45-7CB9-BF4B-A9CB-8EA76EF523E6}"/>
+    <hyperlink ref="I35" r:id="rId35" xr:uid="{3CB7433F-6CDE-E149-8328-9A306D76B4CD}"/>
+    <hyperlink ref="I31" r:id="rId36" xr:uid="{ABDE767E-FD17-F542-933A-70C6568B8F15}"/>
+    <hyperlink ref="I8" r:id="rId37" xr:uid="{A87BCB7E-8E23-4545-815C-FD3F4F65F25D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId38"/>
+  <tableParts count="1">
+    <tablePart r:id="rId39"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF32D99-7FD1-4D82-B312-AE05F448C323}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.3828125" customWidth="1"/>
+    <col min="2" max="2" width="18.3046875" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="5" max="5" width="17.84375" customWidth="1"/>
+    <col min="6" max="6" width="21.4609375" customWidth="1"/>
+    <col min="7" max="7" width="13.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="25">
+        <f>11.9</f>
+        <v>11.9</v>
+      </c>
+      <c r="G2" s="26">
+        <f>SUM(F:F)</f>
+        <v>444.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="27">
+        <v>7.99</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="26">
+        <v>18.5</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="27">
+        <v>129.97</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="27">
+        <v>41.63</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="26">
+        <v>13.99</v>
+      </c>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="27">
+        <v>13.08</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="26">
+        <v>207.16</v>
+      </c>
+      <c r="G9" s="24"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{84D90E1D-5C61-444F-A1DB-D6C4EDA5E83E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+</worksheet>
 </file>